--- a/BalanceSheet/CHD_bal.xlsx
+++ b/BalanceSheet/CHD_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-46300000.0</v>
+        <v>541000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>20400000.0</v>
+        <v>495000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-39600000.0</v>
+        <v>498000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-57900000.0</v>
+        <v>456000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>15200000.0</v>
+        <v>396000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>417400000.0</v>
@@ -1650,16 +1650,16 @@
         <v>-168100000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>27900000.0</v>
+        <v>588000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>104300000.0</v>
+        <v>581000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>109800000.0</v>
+        <v>517000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-74000000.0</v>
+        <v>460000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>831900000.0</v>
@@ -2635,16 +2635,16 @@
         <v>8100000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-2300000.0</v>
+        <v>707000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>16600000.0</v>
+        <v>600000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>3300000.0</v>
+        <v>582000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>8100000.0</v>
+        <v>580000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>580000000.0</v>
@@ -4298,7 +4298,7 @@
         <v>1900000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>2067000000.0</v>
+        <v>1907400000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2068500000.0</v>
@@ -4425,7 +4425,7 @@
         <v>2947000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2223000000.0</v>
+        <v>2063100000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2183200000.0</v>
